--- a/src/main/resources/data/dict.xlsx
+++ b/src/main/resources/data/dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\rowing\rowing\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97688297-49B3-4FAA-BE4F-B1DC1261ADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98362063-C898-4C4A-B95F-CB5807BEE0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="group" sheetId="1" r:id="rId1"/>
     <sheet name="item" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,102 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRINIDAD AND TOBAGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUNISIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TURKEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TURKMENISTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TURKS AND CAICOS ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUVALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UGANDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UKRAINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNITED ARAB EMIRATES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNITED KINGDOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNITED STATES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNITED STATES MINOR OUTLYING ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URUGUAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UZBEKISTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VANUATU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENEZUELA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIET NAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIRGIN ISLANDS, BRITISH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIRGIN ISLANDS, U.S.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WALLIS AND FUTUNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WESTERN SAHARA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YEMEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZAMBIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZIMBABWE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,1722 +143,862 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AFGHANISTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALBANIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALGERIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AMERICAN SAMOA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ANDORRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ANGOLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ANTARCTICA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ANTIGUA AND BARBUDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARGENTINA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARMENIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARUBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUSTRALIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUSTRIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AZERBAIJAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BAHAMAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BAHRAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BANGLADESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BARBADOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BELARUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BELGIUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BELIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BENIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BERMUDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BHUTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOLIVIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOSNIA AND HERZEGOVINA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOTSWANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOUVET ISLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRAZIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRITISH INDIAN OCEAN TERRITORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRUNEI DARUSSALAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BULGARIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BURKINA FASO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BURUNDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAMBODIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAMEROON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CANADA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAPE VERDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAYMAN ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CENTRAL AFRICAN REPUBLIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHINA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHRISTMAS ISLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COCOS (KEELING) ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COLOMBIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMOROS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONGO, THE DEMOCRATIC REPUBLIC OF THE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COOK ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COSTA RICA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CÔTE D'IVOIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CROATIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CYPRUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CZECH REPUBLIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DENMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DJIBOUTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOMINICA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOMINICAN REPUBLIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECUADOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EGYPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EL SALVADOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EQUATORIAL GUINEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERITREA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ESTONIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ETHIOPIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FALKLAND ISLANDS (MALVINAS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FAROE ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FIJI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FINLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRANCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRENCH GUIANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRENCH POLYNESIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRENCH SOUTHERN TERRITORIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GABON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GAMBIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GEORGIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GERMANY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GHANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIBRALTAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GREECE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GREENLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRENADA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUADELOUPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUATEMALA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUINEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUINEA-BISSAU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUYANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HAITI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEARD ISLAND AND MCDONALD ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HONDURAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HONG KONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HUNGARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICELAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INDIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INDONESIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IRAN, ISLAMIC REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IRAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IRELAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ISRAEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITALY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAMAICA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAPAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JORDAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KAZAKHSTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KENYA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KIRIBATI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KOREA, REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KUWAIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KYRGYZSTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LAO PEOPLE'S DEMOCRATIC REPUBLIC (LAOS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LATVIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEBANON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LESOTHO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIBERIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIBYA, STATE OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIECHTENSTEIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LITHUANIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LUXEMBOURG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MACAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MACEDONIA, THE FORMER YUGOSLAV REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MADAGASCAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MALAWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MALAYSIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MALDIVES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MALI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MALTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MARSHALL ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MARTINIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAURITANIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAURITIUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAYOTTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEXICO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MICRONESIA, FEDERATED STATES OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOLDOVA, REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONACO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONGOLIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONTENEGRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MONTSERRAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOROCCO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOZAMBIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MYANMAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAMIBIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAURU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEPAL, FEDERAL DEMOCRATIC REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NETHERLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NETHERLANDS ANTILLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEW CALEDONIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEW ZEALAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NICARAGUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NIGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NIGERIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NIUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NORFOLK ISLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NORTHERN MARIANA ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NORWAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAKISTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PALAU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PALESTINE, STATE OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PANAMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAPUA NEW GUINEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PARAGUAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PERU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PHILIPPINES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PITCAIRN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PORTUGAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PUERTO RICO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QATAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RÉUNION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROMANIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RUSSIAN FEDERATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RWANDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAINT HELENA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAINT KITTS AND NEVIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAINT LUCIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAINT PIERRE AND MIQUELON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAINT VINCENT AND THE GRENADINES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAMOA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAN MARINO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAO TOME AND PRINCIPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAUDI ARABIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SENEGAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SERBIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SEYCHELLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIERRA LEONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SINGAPORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SLOVAKIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SLOVENIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLOMON ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOMALIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOUTH AFRICA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOUTH SUDAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SRI LANKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUDAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SURINAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVALBARD AND JAN MAYEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAZILAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWEDEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWITZERLAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SYRIAN ARAB REPUBLIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TAIWAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TAJIKISTAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TANZANIA, UNITED REPUBLIC OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>THAILAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMOR-LESTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOKELAU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TONGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3093,6 +2148,812 @@
   <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFGHANISTAN（阿富汗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALBANIA（阿尔巴尼亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALGERIA（阿尔及利亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMERICAN SAMOA（美属萨摩亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDORRA（安道尔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANGOLA（安哥拉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANTARCTICA（南极洲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANTIGUA AND BARBUDA（安提瓜和巴布达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARGENTINA（阿根廷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMENIA（亚美尼亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARUBA（阿鲁巴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUSTRALIA（澳大利亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUSTRIA（奥地利）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZERBAIJAN（阿塞拜疆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAHAMAS（巴哈马）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAHRAIN（巴林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANGLADESH（孟加拉国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARBADOS（巴巴多斯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELARUS（白俄罗斯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELGIUM（比利时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELIZE（伯利兹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BENIN（贝宁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERMUDA（百慕大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHUTAN（不丹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOLIVIA（玻利维亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSNIA AND HERZEGOVINA（波黑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOTSWANA（博茨瓦纳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOUVET ISLAND（布维岛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAZIL（巴西）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRITISH INDIAN OCEAN TERRITORY（英属印度洋领地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRUNEI DARUSSALAM（文莱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULGARIA（保加利亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURKINA FASO（布基纳法索）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURUNDI（布隆迪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMBODIA（柬埔寨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMEROON（喀麦隆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANADA（加拿大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPE VERDE（佛得角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAYMAN ISLANDS（开曼群岛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENTRAL AFRICAN REPUBLIC（中非）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAD（乍得）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHILE（智利）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHINA（中国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHRISTMAS ISLAND（圣诞岛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COCOS (KEELING) ISLANDS（科科斯（基林）群岛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLOMBIA（哥伦比亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMOROS（科摩罗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONGO（刚果（布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONGO, THE DEMOCRATIC REPUBLIC OF THE（刚果（金））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK ISLANDS（库克群岛）</t>
+  </si>
+  <si>
+    <t>COSTA RICA（哥斯达黎加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CÔTE D'IVOIRE（科特迪瓦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CROATIA（克罗地亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUBA（古巴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYPRUS（塞浦路斯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZECH REPUBLIC（捷克）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DENMARK（丹麦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJIBOUTI（吉布提）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMINICA（多米尼克）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMINICAN REPUBLIC（多米尼加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECUADOR（厄瓜多尔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGYPT（埃及）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL SALVADOR（萨尔瓦多）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUATORIAL GUINEA（赤道几内亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERITREA（厄立特里亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTONIA（爱沙尼亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETHIOPIA（埃塞俄比亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALKLAND ISLANDS (MALVINAS)（福克兰群岛（马尔维纳斯））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAROE ISLANDS（法罗群岛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIJI（斐济）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINLAND（芬兰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRANCE（法国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRENCH GUIANA（法属圭亚那）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRENCH POLYNESIA（法属波利尼西亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRENCH SOUTHERN TERRITORIES（法属南部领地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GABON（加蓬）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMBIA（冈比亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEORGIA（格鲁吉亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GERMANY（德国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHANA（加纳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIBRALTAR（直布罗陀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREECE（希腊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREENLAND（格陵兰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRENADA（格林纳达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUADELOUPE（瓜德罗普）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUAM（关岛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUATEMALA（危地马拉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUINEA（几内亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUINEA-BISSAU（几内亚比绍）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUYANA（圭亚那）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAITI（海地）</t>
+  </si>
+  <si>
+    <t>HEARD ISLAND AND MCDONALD ISLANDS（赫德岛和麦克唐纳岛）</t>
+  </si>
+  <si>
+    <t>HONDURAS（洪都拉斯）</t>
+  </si>
+  <si>
+    <t>HONG KONG（中国香港）</t>
+  </si>
+  <si>
+    <t>HUNGARY（匈牙利）</t>
+  </si>
+  <si>
+    <t>ICELAND（冰岛）</t>
+  </si>
+  <si>
+    <t>INDIA（印度）</t>
+  </si>
+  <si>
+    <t>INDONESIA（印度尼西亚）</t>
+  </si>
+  <si>
+    <t>IRAN, ISLAMIC REPUBLIC OF（伊朗）</t>
+  </si>
+  <si>
+    <t>IRAQ（伊拉克）</t>
+  </si>
+  <si>
+    <t>IRELAND（爱尔兰）</t>
+  </si>
+  <si>
+    <t>ISRAEL（以色列）</t>
+  </si>
+  <si>
+    <t>ITALY（意大利）</t>
+  </si>
+  <si>
+    <t>JAMAICA（牙买加）</t>
+  </si>
+  <si>
+    <t>JAPAN（日本）</t>
+  </si>
+  <si>
+    <t>JORDAN（约旦）</t>
+  </si>
+  <si>
+    <t>KAZAKHSTAN（哈萨克斯坦）</t>
+  </si>
+  <si>
+    <t>KENYA（肯尼亚）</t>
+  </si>
+  <si>
+    <t>KIRIBATI（基里巴斯）</t>
+  </si>
+  <si>
+    <t>KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF（朝鲜）</t>
+  </si>
+  <si>
+    <t>KOREA, REPUBLIC OF（韩国）</t>
+  </si>
+  <si>
+    <t>KUWAIT（科威特）</t>
+  </si>
+  <si>
+    <t>KYRGYZSTAN（吉尔吉斯斯坦）</t>
+  </si>
+  <si>
+    <t>LAO PEOPLE'S DEMOCRATIC REPUBLIC （LAOS）（老挝）</t>
+  </si>
+  <si>
+    <t>LATVIA（拉脱维亚）</t>
+  </si>
+  <si>
+    <t>LEBANON（黎巴嫩）</t>
+  </si>
+  <si>
+    <t>LESOTHO（莱索托）</t>
+  </si>
+  <si>
+    <t>LIBERIA（利比里亚）</t>
+  </si>
+  <si>
+    <t>LIBYA, STATE OF（利比亚）</t>
+  </si>
+  <si>
+    <t>LIECHTENSTEIN（列支敦士登）</t>
+  </si>
+  <si>
+    <t>LITHUANIA（立陶宛）</t>
+  </si>
+  <si>
+    <t>LUXEMBOURG（卢森堡）</t>
+  </si>
+  <si>
+    <t>MACAO（中国澳门）</t>
+  </si>
+  <si>
+    <t>MACEDONIA, THE FORMER YUGOSLAV REPUBLIC OF（前南马其顿）</t>
+  </si>
+  <si>
+    <t>MADAGASCAR（马达加斯加）</t>
+  </si>
+  <si>
+    <t>MALAWI（马拉维）</t>
+  </si>
+  <si>
+    <t>MALAYSIA（马来西亚）</t>
+  </si>
+  <si>
+    <t>MALDIVES（马尔代夫）</t>
+  </si>
+  <si>
+    <t>MALI（马里）</t>
+  </si>
+  <si>
+    <t>MALTA（马耳他）</t>
+  </si>
+  <si>
+    <t>MARSHALL ISLANDS（马绍尔群岛）</t>
+  </si>
+  <si>
+    <t>MARTINIQUE（马提尼克）</t>
+  </si>
+  <si>
+    <t>MAURITANIA（毛利塔尼亚）</t>
+  </si>
+  <si>
+    <t>MAURITIUS（毛里求斯）</t>
+  </si>
+  <si>
+    <t>MAYOTTE（马约特）</t>
+  </si>
+  <si>
+    <t>MEXICO（墨西哥）</t>
+  </si>
+  <si>
+    <t>MICRONESIA, FEDERATED STATES OF（密克罗尼西亚联邦）</t>
+  </si>
+  <si>
+    <t>MOLDOVA, REPUBLIC OF（摩尔多瓦）</t>
+  </si>
+  <si>
+    <t>MONACO（摩纳哥）</t>
+  </si>
+  <si>
+    <t>MONGOLIA（蒙古）</t>
+  </si>
+  <si>
+    <t>MONTENEGRO（黑山）</t>
+  </si>
+  <si>
+    <t>MONTSERRAT（蒙特塞拉特）</t>
+  </si>
+  <si>
+    <t>MOROCCO（摩洛哥）</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE（莫桑比克）</t>
+  </si>
+  <si>
+    <t>MYANMAR（缅甸）</t>
+  </si>
+  <si>
+    <t>NAMIBIA（纳米比亚）</t>
+  </si>
+  <si>
+    <t>NAURU（瑙鲁）</t>
+  </si>
+  <si>
+    <t>NEPAL, FEDERAL DEMOCRATIC REPUBLIC OF（尼泊尔）</t>
+  </si>
+  <si>
+    <t>NETHERLANDS（荷兰）</t>
+  </si>
+  <si>
+    <t>NETHERLANDS ANTILLES（荷属安的列斯）</t>
+  </si>
+  <si>
+    <t>NEW CALEDONIA（新喀里多尼亚）</t>
+  </si>
+  <si>
+    <t>NEW ZEALAND（新西兰）</t>
+  </si>
+  <si>
+    <t>NICARAGUA（尼加拉瓜）</t>
+  </si>
+  <si>
+    <t>NIGER（尼日尔）</t>
+  </si>
+  <si>
+    <t>NIGERIA（尼日利亚）</t>
+  </si>
+  <si>
+    <t>NIUE（纽埃）</t>
+  </si>
+  <si>
+    <t>NORFOLK ISLAND（诺福克岛）</t>
+  </si>
+  <si>
+    <t>NORTHERN MARIANA ISLANDS（北马里亚纳）</t>
+  </si>
+  <si>
+    <t>NORWAY（挪威）</t>
+  </si>
+  <si>
+    <t>OMAN（阿曼）</t>
+  </si>
+  <si>
+    <t>PAKISTAN（巴基斯坦）</t>
+  </si>
+  <si>
+    <t>PALAU（帕劳）</t>
+  </si>
+  <si>
+    <t>PALESTINE, STATE OF（巴勒斯坦）</t>
+  </si>
+  <si>
+    <t>PANAMA（巴拿马）</t>
+  </si>
+  <si>
+    <t>PAPUA NEW GUINEA（巴布亚新几内亚）</t>
+  </si>
+  <si>
+    <t>PARAGUAY（巴拉圭）</t>
+  </si>
+  <si>
+    <t>PERU（秘鲁）</t>
+  </si>
+  <si>
+    <t>PHILIPPINES（菲律宾）</t>
+  </si>
+  <si>
+    <t>PITCAIRN（皮特凯恩）</t>
+  </si>
+  <si>
+    <t>POLAND（波兰）</t>
+  </si>
+  <si>
+    <t>PORTUGAL（葡萄牙）</t>
+  </si>
+  <si>
+    <t>PUERTO RICO（波多黎各）</t>
+  </si>
+  <si>
+    <t>QATAR（卡塔尔）</t>
+  </si>
+  <si>
+    <t>RÉUNION（留尼汪）</t>
+  </si>
+  <si>
+    <t>ROMANIA（罗马尼亚）</t>
+  </si>
+  <si>
+    <t>RUSSIAN FEDERATION（俄罗斯联邦）</t>
+  </si>
+  <si>
+    <t>RWANDA（卢旺达）</t>
+  </si>
+  <si>
+    <t>SAINT HELENA（圣赫勒拿）</t>
+  </si>
+  <si>
+    <t>SAINT KITTS AND NEVIS（圣基茨和尼维斯）</t>
+  </si>
+  <si>
+    <t>SAINT LUCIA（圣卢西亚）</t>
+  </si>
+  <si>
+    <t>SAINT PIERRE AND MIQUELON（圣皮埃尔和密克隆）</t>
+  </si>
+  <si>
+    <t>SAINT VINCENT AND THE GRENADINES（圣文森特和格林纳丁斯）</t>
+  </si>
+  <si>
+    <t>SAMOA（萨摩亚）</t>
+  </si>
+  <si>
+    <t>SAN MARINO（圣马力诺）</t>
+  </si>
+  <si>
+    <t>SAO TOME AND PRINCIPE（圣多美和普林西比）</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA（沙特阿拉伯）</t>
+  </si>
+  <si>
+    <t>SENEGAL（塞内加尔）</t>
+  </si>
+  <si>
+    <t>SERBIA（塞尔维亚）</t>
+  </si>
+  <si>
+    <t>SEYCHELLES（塞舌尔）</t>
+  </si>
+  <si>
+    <t>SIERRA LEONE（塞拉利昂）</t>
+  </si>
+  <si>
+    <t>SINGAPORE（新加坡）</t>
+  </si>
+  <si>
+    <t>SLOVAKIA（斯洛伐克）</t>
+  </si>
+  <si>
+    <t>SLOVENIA（斯洛文尼亚）</t>
+  </si>
+  <si>
+    <t>SOLOMON ISLANDS（所罗门群岛）</t>
+  </si>
+  <si>
+    <t>SOMALIA（索马里）</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA（南非）</t>
+  </si>
+  <si>
+    <t>SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS（南乔治亚岛和南桑德韦奇岛）</t>
+  </si>
+  <si>
+    <t>SOUTH SUDAN（）</t>
+  </si>
+  <si>
+    <t>SPAIN（西班牙）</t>
+  </si>
+  <si>
+    <t>SRI LANKA（斯里兰卡）</t>
+  </si>
+  <si>
+    <t>SUDAN（苏丹）</t>
+  </si>
+  <si>
+    <t>SURINAME（苏里南）</t>
+  </si>
+  <si>
+    <t>SVALBARD AND JAN MAYEN（斯瓦尔巴岛和扬马延岛）</t>
+  </si>
+  <si>
+    <t>SWAZILAND（斯威士兰）</t>
+  </si>
+  <si>
+    <t>SWEDEN（瑞典）</t>
+  </si>
+  <si>
+    <t>SWITZERLAND（瑞士）</t>
+  </si>
+  <si>
+    <t>SYRIAN ARAB REPUBLIC（叙利亚）</t>
+  </si>
+  <si>
+    <t>TAIWAN（中国台湾）</t>
+  </si>
+  <si>
+    <t>TAJIKISTAN（塔吉克斯坦）</t>
+  </si>
+  <si>
+    <t>TANZANIA, UNITED REPUBLIC OF（坦桑尼亚）</t>
+  </si>
+  <si>
+    <t>THAILAND（泰国）</t>
+  </si>
+  <si>
+    <t>TIMOR-LESTE（东帝汶）</t>
+  </si>
+  <si>
+    <t>TOGO（多哥）</t>
+  </si>
+  <si>
+    <t>TOKELAU（托克劳）</t>
+  </si>
+  <si>
+    <t>TONGA（汤加）</t>
+  </si>
+  <si>
+    <t>TRINIDAD AND TOBAGO（特立尼达和多巴哥）</t>
+  </si>
+  <si>
+    <t>TUNISIA（突尼斯）</t>
+  </si>
+  <si>
+    <t>TURKEY（土耳其）</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN（土库曼斯坦）</t>
+  </si>
+  <si>
+    <t>TURKS AND CAICOS ISLANDS（特克斯和凯科斯群岛）</t>
+  </si>
+  <si>
+    <t>TUVALU（图瓦卢）</t>
+  </si>
+  <si>
+    <t>UGANDA（乌干达）</t>
+  </si>
+  <si>
+    <t>UKRAINE（乌克兰）</t>
+  </si>
+  <si>
+    <t>UNITED ARAB EMIRATES（阿联酋）</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM（英国）</t>
+  </si>
+  <si>
+    <t>UNITED STATES（美国）</t>
+  </si>
+  <si>
+    <t>UNITED STATES MINOR OUTLYING ISLANDS（美国本土外小岛屿）</t>
+  </si>
+  <si>
+    <t>URUGUAY（乌拉圭）</t>
+  </si>
+  <si>
+    <t>UZBEKISTAN（乌兹别克斯坦）</t>
+  </si>
+  <si>
+    <t>VANUATU（瓦努阿图）</t>
+  </si>
+  <si>
+    <t>VENEZUELA（委内瑞拉）</t>
+  </si>
+  <si>
+    <t>VIET NAM（越南）</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS, BRITISH（英属维尔京群岛）</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS, U.S.（美属维尔京群岛）</t>
+  </si>
+  <si>
+    <t>WALLIS AND FUTUNA（瓦利斯和富图纳）</t>
+  </si>
+  <si>
+    <t>WESTERN SAHARA（西撒哈拉）</t>
+  </si>
+  <si>
+    <t>YEMEN（也门）</t>
+  </si>
+  <si>
+    <t>ZAMBIA（赞比亚）</t>
+  </si>
+  <si>
+    <t>ZIMBABWE（津巴布韦）</t>
   </si>
 </sst>
 </file>
@@ -3472,18 +3333,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>619</v>
+        <v>380</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3605,14 +3466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
   <dimension ref="A1:C381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3621,4190 +3482,4190 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>765</v>
+        <v>526</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>766</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>529</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>530</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>531</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>532</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>534</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>535</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>536</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>537</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>538</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>539</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>540</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>541</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>545</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>547</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>548</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>549</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>550</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>551</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>552</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>553</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>554</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>555</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>556</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>557</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>558</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>559</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>560</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>561</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>562</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>563</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>564</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>565</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>566</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>567</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>568</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>569</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>570</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>571</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>572</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>573</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>574</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>144</v>
+        <v>575</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>576</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>577</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
+        <v>578</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>579</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>154</v>
+        <v>580</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>582</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>583</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>162</v>
+        <v>584</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>585</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>586</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>168</v>
+        <v>587</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>588</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>589</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>590</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>176</v>
+        <v>591</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>593</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>594</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>595</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>186</v>
+        <v>596</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>188</v>
+        <v>597</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>190</v>
+        <v>598</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>192</v>
+        <v>599</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>194</v>
+        <v>600</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>601</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>602</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>200</v>
+        <v>603</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>204</v>
+        <v>605</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>206</v>
+        <v>606</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>208</v>
+        <v>607</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>210</v>
+        <v>608</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>212</v>
+        <v>609</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>214</v>
+        <v>610</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>216</v>
+        <v>611</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>218</v>
+        <v>612</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>220</v>
+        <v>613</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>222</v>
+        <v>614</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>224</v>
+        <v>615</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>226</v>
+        <v>616</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>228</v>
+        <v>617</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>230</v>
+        <v>618</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>232</v>
+        <v>619</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>234</v>
+        <v>620</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>238</v>
+        <v>622</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>240</v>
+        <v>623</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>242</v>
+        <v>624</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>244</v>
+        <v>625</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>246</v>
+        <v>626</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>248</v>
+        <v>627</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>250</v>
+        <v>628</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>252</v>
+        <v>629</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>254</v>
+        <v>630</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>256</v>
+        <v>631</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>258</v>
+        <v>632</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>262</v>
+        <v>634</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>264</v>
+        <v>635</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>266</v>
+        <v>636</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>268</v>
+        <v>637</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>270</v>
+        <v>638</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>272</v>
+        <v>639</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>274</v>
+        <v>640</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>276</v>
+        <v>641</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>278</v>
+        <v>642</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>280</v>
+        <v>643</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>282</v>
+        <v>644</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>284</v>
+        <v>645</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>285</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>286</v>
+        <v>646</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>288</v>
+        <v>647</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>290</v>
+        <v>648</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>292</v>
+        <v>649</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>294</v>
+        <v>650</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>295</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>296</v>
+        <v>651</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>297</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>298</v>
+        <v>652</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>300</v>
+        <v>653</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>302</v>
+        <v>654</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>303</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>304</v>
+        <v>655</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>306</v>
+        <v>656</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>308</v>
+        <v>657</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>310</v>
+        <v>658</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>311</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>312</v>
+        <v>659</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>313</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>314</v>
+        <v>660</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>316</v>
+        <v>661</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>319</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>320</v>
+        <v>663</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>322</v>
+        <v>664</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>324</v>
+        <v>665</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>325</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>326</v>
+        <v>666</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>328</v>
+        <v>667</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>330</v>
+        <v>668</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>331</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>332</v>
+        <v>669</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>334</v>
+        <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>335</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>336</v>
+        <v>671</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>337</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>338</v>
+        <v>672</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>339</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>340</v>
+        <v>673</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>341</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>342</v>
+        <v>674</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>344</v>
+        <v>675</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>346</v>
+        <v>676</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>347</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>348</v>
+        <v>677</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>349</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>350</v>
+        <v>678</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>351</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>352</v>
+        <v>679</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>354</v>
+        <v>680</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>355</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>356</v>
+        <v>681</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>357</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>358</v>
+        <v>682</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>362</v>
+        <v>684</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>364</v>
+        <v>685</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>366</v>
+        <v>686</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>367</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>368</v>
+        <v>687</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>369</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>370</v>
+        <v>688</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>371</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>372</v>
+        <v>689</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>373</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>374</v>
+        <v>690</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>375</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>376</v>
+        <v>691</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>377</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>378</v>
+        <v>692</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>380</v>
+        <v>693</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>382</v>
+        <v>694</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>383</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>384</v>
+        <v>695</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>385</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>386</v>
+        <v>696</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>388</v>
+        <v>697</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>389</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>390</v>
+        <v>698</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>391</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>392</v>
+        <v>699</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>394</v>
+        <v>700</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>396</v>
+        <v>701</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>397</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>398</v>
+        <v>702</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>400</v>
+        <v>703</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>401</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>402</v>
+        <v>704</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>404</v>
+        <v>705</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>406</v>
+        <v>706</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>407</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>408</v>
+        <v>707</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>409</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>410</v>
+        <v>708</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>411</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>412</v>
+        <v>709</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>413</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>414</v>
+        <v>710</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>415</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>416</v>
+        <v>711</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>417</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>418</v>
+        <v>712</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>419</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>420</v>
+        <v>713</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>421</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>422</v>
+        <v>714</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>424</v>
+        <v>715</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>425</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>426</v>
+        <v>716</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>427</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>428</v>
+        <v>717</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>429</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>430</v>
+        <v>718</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>431</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>432</v>
+        <v>719</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>433</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>434</v>
+        <v>720</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>435</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>436</v>
+        <v>721</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>437</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>438</v>
+        <v>722</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>439</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>440</v>
+        <v>723</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>441</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>442</v>
+        <v>724</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>443</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>444</v>
+        <v>725</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>445</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>446</v>
+        <v>726</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>447</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>448</v>
+        <v>727</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>450</v>
+        <v>728</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>451</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>452</v>
+        <v>729</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>453</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>454</v>
+        <v>730</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>455</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>456</v>
+        <v>731</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>458</v>
+        <v>732</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>459</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>460</v>
+        <v>733</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>461</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>462</v>
+        <v>734</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>463</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>464</v>
+        <v>735</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>465</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>466</v>
+        <v>736</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>467</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>468</v>
+        <v>737</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>469</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>470</v>
+        <v>738</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>471</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>472</v>
+        <v>739</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>473</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>474</v>
+        <v>740</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>475</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>476</v>
+        <v>741</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>477</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>478</v>
+        <v>742</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>479</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>2</v>
+        <v>743</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>3</v>
+        <v>744</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>4</v>
+        <v>745</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>5</v>
+        <v>746</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>480</v>
+        <v>241</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>622</v>
+        <v>383</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>482</v>
+        <v>243</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>621</v>
+        <v>382</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>483</v>
+        <v>244</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>623</v>
+        <v>384</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>484</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>624</v>
+        <v>385</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>485</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>625</v>
+        <v>386</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>486</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>626</v>
+        <v>387</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>487</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>627</v>
+        <v>388</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>488</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>628</v>
+        <v>389</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>489</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>629</v>
+        <v>390</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>490</v>
+        <v>251</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>491</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>631</v>
+        <v>392</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>492</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>632</v>
+        <v>393</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>493</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>633</v>
+        <v>394</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>494</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>634</v>
+        <v>395</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>495</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>635</v>
+        <v>396</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>496</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>636</v>
+        <v>397</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>497</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>637</v>
+        <v>398</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>498</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>638</v>
+        <v>399</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>499</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>500</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>640</v>
+        <v>401</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>501</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>641</v>
+        <v>402</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>642</v>
+        <v>403</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>503</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>643</v>
+        <v>404</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>644</v>
+        <v>405</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>645</v>
+        <v>406</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>646</v>
+        <v>407</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>506</v>
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>647</v>
+        <v>408</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>507</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>648</v>
+        <v>409</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>508</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>649</v>
+        <v>410</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>509</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>650</v>
+        <v>411</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>510</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>651</v>
+        <v>412</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>511</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>652</v>
+        <v>413</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>512</v>
+        <v>273</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>653</v>
+        <v>414</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>513</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>654</v>
+        <v>415</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>514</v>
+        <v>275</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>655</v>
+        <v>416</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>515</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>656</v>
+        <v>417</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>516</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>657</v>
+        <v>418</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>517</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>658</v>
+        <v>419</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>518</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>659</v>
+        <v>420</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>519</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>660</v>
+        <v>421</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>520</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>661</v>
+        <v>422</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>521</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>662</v>
+        <v>423</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>522</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>663</v>
+        <v>424</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>523</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>664</v>
+        <v>425</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>524</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>665</v>
+        <v>426</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>525</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>666</v>
+        <v>427</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>526</v>
+        <v>287</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>667</v>
+        <v>428</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>527</v>
+        <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>668</v>
+        <v>429</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>528</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>669</v>
+        <v>430</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>670</v>
+        <v>431</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>671</v>
+        <v>432</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>529</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>672</v>
+        <v>433</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>530</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>673</v>
+        <v>434</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>531</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>674</v>
+        <v>435</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>675</v>
+        <v>436</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>676</v>
+        <v>437</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>532</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>677</v>
+        <v>438</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>678</v>
+        <v>439</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>534</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>679</v>
+        <v>440</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>535</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>680</v>
+        <v>441</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>536</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>681</v>
+        <v>442</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>537</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>682</v>
+        <v>443</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>538</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>683</v>
+        <v>444</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>539</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>684</v>
+        <v>445</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>540</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>685</v>
+        <v>446</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>541</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>686</v>
+        <v>447</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>542</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>687</v>
+        <v>448</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>543</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>688</v>
+        <v>449</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>544</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>689</v>
+        <v>450</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>545</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>690</v>
+        <v>451</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>546</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>691</v>
+        <v>452</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>547</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>692</v>
+        <v>453</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>548</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>693</v>
+        <v>454</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>549</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>694</v>
+        <v>455</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>550</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>695</v>
+        <v>456</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>551</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>696</v>
+        <v>457</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>552</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>697</v>
+        <v>458</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>553</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>698</v>
+        <v>459</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>554</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>699</v>
+        <v>460</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>555</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>700</v>
+        <v>461</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>556</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>701</v>
+        <v>462</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>557</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>702</v>
+        <v>463</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>558</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>703</v>
+        <v>464</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>559</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>704</v>
+        <v>465</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>560</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>705</v>
+        <v>466</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>561</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>706</v>
+        <v>467</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>562</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>707</v>
+        <v>468</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>563</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>708</v>
+        <v>469</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>564</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>709</v>
+        <v>470</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>565</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>710</v>
+        <v>471</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>566</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>711</v>
+        <v>472</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>567</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>712</v>
+        <v>473</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>568</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>713</v>
+        <v>474</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>569</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>714</v>
+        <v>475</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>570</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>715</v>
+        <v>476</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>571</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>716</v>
+        <v>477</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>572</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>717</v>
+        <v>478</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>573</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>718</v>
+        <v>479</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>574</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>719</v>
+        <v>480</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>575</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="C338" s="1" t="s">
-        <v>576</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>721</v>
+        <v>482</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>577</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>722</v>
+        <v>483</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>578</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>723</v>
+        <v>484</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>579</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>724</v>
+        <v>485</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>580</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>725</v>
+        <v>486</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>581</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>726</v>
+        <v>487</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>582</v>
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>727</v>
+        <v>488</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>583</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>584</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>729</v>
+        <v>490</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>585</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>730</v>
+        <v>491</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>586</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>731</v>
+        <v>492</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>587</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>732</v>
+        <v>493</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>588</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>733</v>
+        <v>494</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>589</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>734</v>
+        <v>495</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>590</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>735</v>
+        <v>496</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>591</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>736</v>
+        <v>497</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>592</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>737</v>
+        <v>498</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>593</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>738</v>
+        <v>499</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>594</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>595</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>740</v>
+        <v>501</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>596</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>741</v>
+        <v>502</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>597</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>742</v>
+        <v>503</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>598</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>743</v>
+        <v>504</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>599</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>744</v>
+        <v>505</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>600</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>745</v>
+        <v>506</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>601</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>602</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>747</v>
+        <v>508</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>603</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>748</v>
+        <v>509</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>604</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>749</v>
+        <v>510</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>605</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>750</v>
+        <v>511</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>606</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>751</v>
+        <v>512</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>607</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>752</v>
+        <v>513</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>608</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>753</v>
+        <v>514</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>609</v>
+        <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>754</v>
+        <v>515</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>610</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>755</v>
+        <v>516</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>611</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>756</v>
+        <v>517</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>612</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>757</v>
+        <v>518</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>613</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>758</v>
+        <v>519</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>614</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>759</v>
+        <v>520</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>615</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>760</v>
+        <v>521</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>616</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>761</v>
+        <v>522</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>762</v>
+        <v>523</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>763</v>
+        <v>524</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>617</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>764</v>
+        <v>525</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>618</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/dict.xlsx
+++ b/src/main/resources/data/dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\github\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F529ADB2-02CF-4AEA-8633-61605F8AF805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A36551F-2EF5-48C8-A8C0-CB5008BD7065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,148 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM_SUBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>CHEMISTRY</t>
+  </si>
+  <si>
+    <t>BIOLOGY</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY</t>
+  </si>
+  <si>
+    <t>POLITICS</t>
+  </si>
+  <si>
+    <t>ECONOMICS</t>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>COMPUTER_SCIENCE</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>LITERATURE</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>PHYSICAL_EDUCATION</t>
+  </si>
+  <si>
+    <t>LAW</t>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>工程学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTELLIGENCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -48,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,9 +214,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="新宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -105,16 +254,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,132 +546,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="50.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="36.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -532,27 +582,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="36.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
